--- a/Gantt-Desarrollo.xlsx
+++ b/Gantt-Desarrollo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago Nava\Desktop\SOUCAN\AdaptacionesEBAU_SOUCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F61E5-C2B2-455A-94E8-26E05A7E0239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED9A748-0F1C-4968-81A2-BB86F56E6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3408" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{6EEFB3BD-37BA-405F-9533-7AE1C74EE60B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EEFB3BD-37BA-405F-9533-7AE1C74EE60B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -85,13 +85,27 @@
   <si>
     <t>Fin de proyecto</t>
   </si>
+  <si>
+    <t>Desarrollo del Informe</t>
+  </si>
+  <si>
+    <t>Diseño de Interfaces de Aplicación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -119,10 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,9 +186,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Fecha Inicio</c:v>
-          </c:tx>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -182,71 +196,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$11</c:f>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Análisis de Requisitos Funcionales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diseño de Interfaces de Aplicación</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Análisis de Requisitos No Funcionales</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Diseño de Modelo de Dominio</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Diseño de Base de Datos</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Implementación de Base de Datos</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Conexión con Base de Datos + Modelado de la API</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Implementación de Back-End de la API</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Implementación de Controlador + Diseño de Vistas</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Implementación de Vistas</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Implementación de Access</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Desarrollo del Informe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$11</c:f>
+              <c:f>Hoja1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45372</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45377</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45379</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45383</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45397</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45398</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>45404</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45411</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>45420</c:v>
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,9 +292,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Dias</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="005C67"/>
@@ -273,73 +302,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-F04A-4C6A-9753-A306294FEE67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F04A-4C6A-9753-A306294FEE67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$11</c:f>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Análisis de Requisitos Funcionales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diseño de Interfaces de Aplicación</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Análisis de Requisitos No Funcionales</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Diseño de Modelo de Dominio</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Diseño de Base de Datos</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Implementación de Base de Datos</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Conexión con Base de Datos + Modelado de la API</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Implementación de Back-End de la API</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Implementación de Controlador + Diseño de Vistas</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Implementación de Vistas</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Implementación de Access</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Desarrollo del Informe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$11</c:f>
+              <c:f>Hoja1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,8 +503,8 @@
         <c:axId val="574105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45427"/>
-          <c:min val="45371"/>
+          <c:max val="45457"/>
+          <c:min val="45330"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1424,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15622FC-9E4F-4DA0-85F1-5D70D7268951}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1520,7 @@
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1457,156 +1542,190 @@
         <v>45330</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>45371</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>45372</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>45376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>45377</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>45378</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>45379</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>45383</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>45397</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>45397</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>45398</v>
       </c>
+      <c r="O8" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>45398</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45404</v>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45412</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>45404</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45411</v>
+      <c r="B10" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45421</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>45411</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45420</v>
+      <c r="B11" s="1">
+        <v>45421</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45429</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>45420</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45426</v>
+      <c r="B12" s="1">
+        <v>45429</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45440</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45440</v>
+      </c>
+      <c r="C13" s="5">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45371</v>
-      </c>
+        <v>45330</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45427</v>
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>